--- a/src/js/translate/output.xlsx
+++ b/src/js/translate/output.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -392,684 +392,582 @@
         <v>简体中文</v>
       </c>
       <c r="C1" t="str">
-        <v>Chinese Simplified</v>
+        <v/>
       </c>
       <c r="D1" t="str">
-        <v>簡體中文</v>
+        <v/>
       </c>
       <c r="E1" t="str">
-        <v>الصينية المبسطة</v>
+        <v/>
+      </c>
+      <c r="F1" t="str">
+        <v>Китайский упрощённый</v>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <v>Bahasa Cina Ringkas</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>fxchat_setting_close_account</v>
+        <v>fxchat_group_apply_office</v>
       </c>
       <c r="B2" t="str">
-        <v>注销账号</v>
+        <v>申请成为认证群</v>
       </c>
       <c r="C2" t="str">
-        <v>Cancel your account</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>註銷帳號</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>إلغاء حسابك</v>
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>Подать заявку, чтобы стать сертификационной группой</v>
+      </c>
+      <c r="G2" t="str">
+        <v>تقدم بطلب لتصبح مجموعة شهادات</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>fxchat_setting_close_account_apply</v>
+        <v>fxchat_group_apply_office_name</v>
       </c>
       <c r="B3" t="str">
-        <v>申请注销账号</v>
+        <v>官方群名</v>
       </c>
       <c r="C3" t="str">
-        <v>Apply for account cancellation</v>
+        <v>官方群名</v>
       </c>
       <c r="D3" t="str">
-        <v>申請註銷帳號</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>التقدم بطلب لإلغاء الحساب</v>
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>Официальное название группы</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>Nama grup resmi</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>fxchat_setting_close_account_step_1</v>
+        <v>fxchat_group_apply_office_websit</v>
       </c>
       <c r="B4" t="str">
-        <v>在你提交注销申请生效前，请确认以下事项，为了保护你的账号、财产安全：</v>
+        <v>官方网址</v>
       </c>
       <c r="C4" t="str">
-        <v>Before you submit the cancellation application to take effect, please confirm the following information to protect the security of your account and property:</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>在你提交註銷申請生效前，請確認以下事項，為了保護你的賬號、財產安全：</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>قبل تقديم طلب الإلغاء ليصبح ساري المفعول، يرجى تأكيد المعلومات التالية لحماية أمان حسابك ومكان الإقامة الخاص بك:</v>
+        <v>URL chính thức</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Официальный URL-адрес</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>URL resmi</v>
+      </c>
+      <c r="J4" t="str">
+        <v>URL rasmi</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>fxchat_setting_close_account_step_1_list_0</v>
+        <v>fxchat_group_apply_office_email</v>
       </c>
       <c r="B5" t="str">
-        <v>删除您的Forexchat账号</v>
+        <v>官方邮箱</v>
       </c>
       <c r="C5" t="str">
-        <v>Delete your Forex chat account</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>刪除您的Forexchat帳號</v>
+        <v>Official email</v>
       </c>
       <c r="E5" t="str">
-        <v>حذف حساب دردشة الفوركس الخاص بك</v>
+        <v>Email chính thức</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Официальная электронная почта</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>Email resmi</v>
+      </c>
+      <c r="J5" t="str">
+        <v>E-mel rasmi</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>fxchat_setting_close_account_step_1_list_1</v>
+        <v>fxchat_group_apply_office_username</v>
       </c>
       <c r="B6" t="str">
-        <v>清空对话记录</v>
+        <v>联系人姓名</v>
       </c>
       <c r="C6" t="str">
-        <v>Clear the conversation history</v>
+        <v>聯繫人姓名</v>
       </c>
       <c r="D6" t="str">
-        <v>清空對話記錄</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>مسح محفوظات المحادثات</v>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>Имя контактного лица</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v>ชื่อผู้ติดต่อ</v>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v>Nama kenalan</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>fxchat_setting_close_account_step_1_list_2</v>
+        <v>fxchat_group_apply_office_phone</v>
       </c>
       <c r="B7" t="str">
-        <v>将您从全部Forexchat群中移除</v>
+        <v>联系人电话</v>
       </c>
       <c r="C7" t="str">
-        <v>Remove you from all Forexchat groups</v>
+        <v/>
       </c>
       <c r="D7" t="str">
-        <v>將您從全部Forexchat群中移除</v>
+        <v>Contact phone</v>
       </c>
       <c r="E7" t="str">
-        <v>إزالتك من جميع مجموعات فوركس شات</v>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>โทรศัพท์ติดต่อ</v>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>fxchat_setting_close_account_step_1_list_3</v>
+        <v>fxchat_group_apply_office_intro</v>
       </c>
       <c r="B8" t="str">
-        <v>已绑定的第三方账户，自动解绑</v>
+        <v>授权人说明</v>
       </c>
       <c r="C8" t="str">
-        <v>The bound third-party account will be automatically unbound</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>已綁定的第三方帳戶，自動解綁</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>سيتم إلغاء ربط حساب الطرف الثالث المرتبط تلقائيا</v>
+        <v>Mô tả về Người ủy quyền</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Описание авторизатора</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v>Penerangan mengenai Authorizer</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>fxchat_setting_close_account_step_1_list_4</v>
+        <v>fxchat_group_retry_code</v>
       </c>
       <c r="B9" t="str">
-        <v>已绑定的MT4交易账户，自动解绑</v>
+        <v>再次获取</v>
       </c>
       <c r="C9" t="str">
-        <v>The bound MT4 trading account will be automatically unbound</v>
+        <v>再次獲取</v>
       </c>
       <c r="D9" t="str">
-        <v>已綁定的MT4交易帳戶，自動解綁</v>
+        <v>Get it again</v>
       </c>
       <c r="E9" t="str">
-        <v>سيتم إلغاء ربط حساب التداول MT4 المرتبط تلقائيا</v>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>احصل عليه مرة أخرى</v>
+      </c>
+      <c r="H9" t="str">
+        <v>รับอีกครั้ง</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Dapatkan lagi</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>fxchat_setting_close_account_step_1_list_5</v>
+        <v>fxchat_group_apply_status</v>
       </c>
       <c r="B10" t="str">
-        <v>待清算订单，自动结算</v>
+        <v>申请状态</v>
       </c>
       <c r="C10" t="str">
-        <v>Orders to be cleared will be automatically settled</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>待清算訂單，自動結算</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>سيتم تسوية الطلبات المراد مسحها تلقائيا</v>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>Статус заявки</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>สถานะการสมัคร</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Status Aplikasi</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Status Permohonan</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>fxchat_setting_close_account_step_1_list_6</v>
+        <v>fxchat_group_apply_status_pass</v>
       </c>
       <c r="B11" t="str">
-        <v>Forexchat账户余额，自动清空</v>
+        <v>已通过</v>
       </c>
       <c r="C11" t="str">
-        <v>The balance of the Forexchat account is automatically emptied</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>Forexchat賬戶餘額，自動清空</v>
+        <v>Passed</v>
       </c>
       <c r="E11" t="str">
-        <v>يتم إفراغ رصيد حساب الفوركس تلقائيا</v>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>مرت</v>
+      </c>
+      <c r="H11" t="str">
+        <v>ผ่าน</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Berlalu</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>fxchat_setting_close_account_step_2</v>
+        <v>fxchat_group_apply_status_verify</v>
       </c>
       <c r="B12" t="str">
-        <v>温馨提示</v>
+        <v>正在审核中...</v>
       </c>
       <c r="C12" t="str">
-        <v>Tips</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>溫馨提示</v>
+        <v>Under review...</v>
       </c>
       <c r="E12" t="str">
-        <v>النصائح</v>
+        <v>Đang xem xét...</v>
+      </c>
+      <c r="F12" t="str">
+        <v>На рассмотрении...</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v>อยู่ระหว่างการตรวจสอบ...</v>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v>Ditinjau...</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>fxchat_setting_close_account_step_2_list_0</v>
+        <v>fxchat_group_apply_status_refuse</v>
       </c>
       <c r="B13" t="str">
-        <v>我们将为您保留7天账户权益，7天后自动注销成功。</v>
+        <v>已拒绝</v>
       </c>
       <c r="C13" t="str">
-        <v>We will keep your account rights for 7 days, and the account will be automatically cancelled after 7 days.</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>我們將為您保留7天賬戶權益，7天后自動註銷成功。</v>
+        <v>Rejected</v>
       </c>
       <c r="E13" t="str">
-        <v>سنحتفظ بحقوق حسابك لمدة 7 أيام ، وسيتم إلغاء الحساب تلقائيا بعد 7 أيام.</v>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>fxchat_setting_close_account_step_2_list_1</v>
+        <v>fxchat_group_apply_status_view_reason</v>
       </c>
       <c r="B14" t="str">
-        <v>注销账号前您可以主动撒回申请。</v>
+        <v>查看原因</v>
       </c>
       <c r="C14" t="str">
-        <v>You can voluntarily return the application before canceling your account.</v>
+        <v/>
       </c>
       <c r="D14" t="str">
-        <v>註銷帳號前您可以主動撒回申請。</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>يمكنك إعادة الطلب طواعية قبل إلغاء حسابك.</v>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v>Lihat mengapa</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>fxchat_setting_close_account_step_2_list_2</v>
+        <v>fxchat_group_apply_valid_declare</v>
       </c>
       <c r="B15" t="str">
-        <v>注销后您将无法继续使用该账号登录Forexchat。</v>
+        <v>请先勾选授权人声明</v>
       </c>
       <c r="C15" t="str">
-        <v>Once you have logged out, you will no longer be able to log in to Forexchat with that account.</v>
+        <v/>
       </c>
       <c r="D15" t="str">
-        <v>註銷后您將無法繼續使用該帳號登錄Forexchat。</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>بمجرد تسجيل الخروج ، لن تتمكن بعد الآن من تسجيل الدخول إلى Forexchat باستخدام هذا الحساب.</v>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>يرجى التحقق من إقرار الشخص المخول أولا</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>fxchat_setting_close_account_step_3</v>
+        <v>fxchat_group_apply_read_agree</v>
       </c>
       <c r="B16" t="str">
-        <v>注销原因(必填)</v>
+        <v>已阅读并同意</v>
       </c>
       <c r="C16" t="str">
-        <v>Reason for Cancellation (required)</v>
+        <v>已閱讀並同意</v>
       </c>
       <c r="D16" t="str">
-        <v>登出原因（必填）</v>
+        <v>Reads and agrees</v>
       </c>
       <c r="E16" t="str">
-        <v>سبب الإلغاء (مطلوب)</v>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>يقرأ ويوافق</v>
+      </c>
+      <c r="H16" t="str">
+        <v>อ่านและเห็นด้วย</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>fxchat_setting_close_account_step_3_placeholder</v>
+        <v>fxchat_group_apply_declare</v>
       </c>
       <c r="B17" t="str">
-        <v>请填写注销原因(不少于10个字符)</v>
+        <v>授权人声明</v>
       </c>
       <c r="C17" t="str">
-        <v>Please fill in the reason for cancellation (no less than 10 characters)</v>
+        <v/>
       </c>
       <c r="D17" t="str">
-        <v>請填寫登出原因（不少於10個字元）</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>يرجى ملء سبب الإلغاء (لا يقل عن 10 أحرف)</v>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v>Penyata Kebenaran</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>fxchat_setting_close_account_step_3_err_tip</v>
+        <v>fxchat_group_apply_disabled_tip</v>
       </c>
       <c r="B18" t="str">
-        <v>请按要求填写注销原因</v>
+        <v>不可再次提交</v>
       </c>
       <c r="C18" t="str">
-        <v>Please fill in the reason for cancellation as required</v>
+        <v>不可再次提交</v>
       </c>
       <c r="D18" t="str">
-        <v>請按要求填寫註銷原因</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>يرجى ملء سبب الإلغاء كما هو مطلوب</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>fxchat_setting_close_account_step_end</v>
-      </c>
-      <c r="B19" t="str">
-        <v>确定注销即表示您已阅读并同意注销提醒</v>
-      </c>
-      <c r="C19" t="str">
-        <v>By confirming the logout, you indicate that you have read and agree to the logout reminder</v>
-      </c>
-      <c r="D19" t="str">
-        <v>確定註銷即表示您已閱讀並同意註銷提醒</v>
-      </c>
-      <c r="E19" t="str">
-        <v>من خلال تأكيد تسجيل الخروج ، فإنك تشير إلى أنك قد قرأت ووافقت على تذكير تسجيل الخروج</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>fxchat_setting_close_account_btn</v>
-      </c>
-      <c r="B20" t="str">
-        <v>确定注销</v>
-      </c>
-      <c r="C20" t="str">
-        <v>OK to log out</v>
-      </c>
-      <c r="D20" t="str">
-        <v>確定註銷</v>
-      </c>
-      <c r="E20" t="str">
-        <v>موافق لتسجيل الخروج</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>fxchat_setting_close_account_balance_confirm</v>
-      </c>
-      <c r="B21" t="str">
-        <v>确定在账户含有余额的情况下注销账户？</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Are you sure to close your account if it has a balance?</v>
-      </c>
-      <c r="D21" t="str">
-        <v>確定在帳戶含有餘額的情況下註銷帳戶？</v>
-      </c>
-      <c r="E21" t="str">
-        <v>هل أنت متأكد من إغلاق حسابك إذا كان لديه رصيد؟</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>fxchat_setting_close_account_verify_title</v>
-      </c>
-      <c r="B22" t="str">
-        <v>为了保护您的账号安全，注销账号，需要验证</v>
-      </c>
-      <c r="C22" t="str">
-        <v>In order to protect the security of your account, verification is required to cancel your account</v>
-      </c>
-      <c r="D22" t="str">
-        <v>為了保護您的帳號安全，註銷帳號，需要驗證</v>
-      </c>
-      <c r="E22" t="str">
-        <v>من أجل حماية أمان حسابك ، يلزم التحقق لإلغاء حسابك</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>fxchat_setting_close_account_verify_email</v>
-      </c>
-      <c r="B23" t="str">
-        <v>邮箱验证</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Email verification</v>
-      </c>
-      <c r="D23" t="str">
-        <v>郵箱驗證</v>
-      </c>
-      <c r="E23" t="str">
-        <v>التحقق من البريد الإلكتروني</v>
+        <v>Không được phép gửi lại</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Повторная отправка не допускается</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v>ไม่อนุญาตให้ส่งใหม่</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Pengiriman ulang tidak diizinkan</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Penyerahan semula tidak dibenarkan</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>fxchat_setting_close_account_verify_phone</v>
-      </c>
-      <c r="B24" t="str">
-        <v>手机号验证</v>
-      </c>
       <c r="C24" t="str">
         <v>Ï</v>
       </c>
-      <c r="D24" t="str">
-        <v>Mobile phone number verification</v>
-      </c>
-      <c r="E24" t="str">
-        <v>手機號驗證</v>
-      </c>
-      <c r="F24" t="str">
-        <v>التحقق من رقم الهاتف المحمول</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>fxchat_setting_close_account_verify_input</v>
-      </c>
-      <c r="B25" t="str">
-        <v>请输入4位验证码</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Please enter the 4-digit verification code</v>
-      </c>
-      <c r="D25" t="str">
-        <v>請輸入4位驗證碼</v>
-      </c>
-      <c r="E25" t="str">
-        <v>يرجى إدخال رمز التحقق المكون من 4 أرقام</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>fxchat_setting_close_account_verify_con</v>
-      </c>
-      <c r="B26" t="str">
-        <v xml:space="preserve">验证码已发送至: </v>
-      </c>
-      <c r="C26" t="str">
-        <v>A verification code has been sent to:</v>
-      </c>
-      <c r="D26" t="str">
-        <v>驗證碼已發送至：</v>
-      </c>
-      <c r="E26" t="str">
-        <v>تم إرسال رمز التحقق إلى:</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>fxchat_setting_close_account_verify_err_tip</v>
-      </c>
-      <c r="B27" t="str">
-        <v>验证码错误，请重新输入</v>
-      </c>
-      <c r="C27" t="str">
-        <v>The verification code is incorrect, please re-enter it</v>
-      </c>
-      <c r="D27" t="str">
-        <v>驗證碼錯誤，請重新輸入</v>
-      </c>
-      <c r="E27" t="str">
-        <v>رمز التحقق غير صحيح ، يرجى إعادة إدخاله</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>fxchat_setting_close_account_verify_re_send</v>
-      </c>
-      <c r="B28" t="str">
-        <v>{0}s后可重新发送验证码</v>
-      </c>
-      <c r="C28" t="str">
-        <v>After {0}s, you can resend the verification code</v>
-      </c>
-      <c r="D28" t="str">
-        <v>{0}s後可重新發送驗證碼</v>
-      </c>
-      <c r="E28" t="str">
-        <v>بعد {0} ، يمكنك إعادة إرسال رمز التحقق</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>fxchat_setting_close_account_verify_re_send_btn</v>
-      </c>
-      <c r="B29" t="str">
-        <v>重新发送验证码</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Resend the verification code</v>
-      </c>
-      <c r="D29" t="str">
-        <v>重新發送驗證碼</v>
-      </c>
-      <c r="E29" t="str">
-        <v>إعادة إرسال رمز التحقق</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>fxchat_setting_close_account_result_title_success</v>
-      </c>
-      <c r="B30" t="str">
-        <v>申请成功</v>
-      </c>
-      <c r="C30" t="str">
-        <v>The application was successful</v>
-      </c>
-      <c r="D30" t="str">
-        <v>申請成功</v>
-      </c>
-      <c r="E30" t="str">
-        <v>تم التطبيق بنجاح</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>fxchat_setting_close_account_result_title</v>
-      </c>
-      <c r="B31" t="str">
-        <v>注销申请已提交</v>
-      </c>
-      <c r="C31" t="str">
-        <v>The cancellation request has been submitted</v>
-      </c>
-      <c r="D31" t="str">
-        <v>註銷申請已提交</v>
-      </c>
-      <c r="E31" t="str">
-        <v>تم تقديم طلب الإلغاء</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>fxchat_setting_close_account_result_time</v>
-      </c>
-      <c r="B32" t="str">
-        <v xml:space="preserve">注销时间: </v>
-      </c>
-      <c r="C32" t="str">
-        <v>Cancellation time:</v>
-      </c>
-      <c r="D32" t="str">
-        <v>註銷時間：</v>
-      </c>
-      <c r="E32" t="str">
-        <v>وقت الإلغاء:</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>fxchat_setting_close_account_result_cancel_title</v>
-      </c>
-      <c r="B33" t="str">
-        <v>撤销申请</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Withdrawal of application</v>
-      </c>
-      <c r="D33" t="str">
-        <v>撤銷申請</v>
-      </c>
-      <c r="E33" t="str">
-        <v>سحب الطلب</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>fxchat_setting_close_account_result_cancel_confirm</v>
-      </c>
-      <c r="B34" t="str">
-        <v>确定撤销对注销账号的申请</v>
-      </c>
-      <c r="C34" t="str">
-        <v>Decide to revoke the request for account cancellation</v>
-      </c>
-      <c r="D34" t="str">
-        <v>確定撤銷對註銷帳號的申請</v>
-      </c>
-      <c r="E34" t="str">
-        <v>تقرر إلغاء طلب إلغاء الحساب</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>fxchat_setting_close_account_confirm_alert</v>
-      </c>
-      <c r="B35" t="str">
-        <v>账号已注销</v>
-      </c>
-      <c r="C35" t="str">
-        <v>The account has been deleted</v>
-      </c>
-      <c r="D35" t="str">
-        <v>帳號已註銷</v>
-      </c>
-      <c r="E35" t="str">
-        <v>تم حذف الحساب</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>fxchat_setting_close_account_cancel_success</v>
-      </c>
-      <c r="B36" t="str">
-        <v>撤销成功</v>
-      </c>
-      <c r="C36" t="str">
-        <v>The revocation is successful</v>
-      </c>
-      <c r="D36" t="str">
-        <v>撤銷成功</v>
-      </c>
-      <c r="E36" t="str">
-        <v>تم الإلغاء بنجاح</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>fxchat_setting_close_account_close</v>
-      </c>
-      <c r="B37" t="str">
-        <v>关闭</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Shut down</v>
-      </c>
-      <c r="D37" t="str">
-        <v>關閉</v>
-      </c>
-      <c r="E37" t="str">
-        <v>إيقاف التشغيل</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>fxchat_chat_msg_view_original</v>
-      </c>
-      <c r="B38" t="str">
-        <v>查看原文</v>
-      </c>
-      <c r="C38" t="str">
-        <v>View original article</v>
-      </c>
-      <c r="D38" t="str">
-        <v>查看原文</v>
-      </c>
-      <c r="E38" t="str">
-        <v>عرض المقال الأصلي</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>fxchat_chat_msg_translate</v>
-      </c>
-      <c r="B39" t="str">
-        <v>查看译文</v>
-      </c>
-      <c r="C39" t="str">
-        <v>View the translation</v>
-      </c>
-      <c r="D39" t="str">
-        <v>查看譯文</v>
-      </c>
-      <c r="E39" t="str">
-        <v>عرض الترجمة</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>fxchat_chat_msg_translate_google_tip</v>
-      </c>
-      <c r="B40" t="str">
-        <v>由Google翻译提供支持</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Powered by Google Translate</v>
-      </c>
-      <c r="D40" t="str">
-        <v>由Google翻譯提供支援</v>
-      </c>
-      <c r="E40" t="str">
-        <v>مدعوم من ترجمة جوجل</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J24"/>
   </ignoredErrors>
 </worksheet>
 </file>